--- a/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
+++ b/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\PTFURfE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="20115" windowHeight="12075"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="HDVs, Rail" sheetId="2" r:id="rId3"/>
     <sheet name="PTFURfE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Source:</t>
   </si>
@@ -149,12 +154,33 @@
   </si>
   <si>
     <t>passenger HDVs value in any case.)</t>
+  </si>
+  <si>
+    <t>For vehicle types that can use electricity, this variable specifies the percentage</t>
+  </si>
+  <si>
+    <t>reduction in fuel use (on a BTU basis) relative to the typical fuel type for that vehicle</t>
+  </si>
+  <si>
+    <t>type (e.g. gasoline for LDVs, diesel for HDVs, etc.) due to the fact that electricity</t>
+  </si>
+  <si>
+    <t>can be converted into work more efficiently than other fuel types.</t>
+  </si>
+  <si>
+    <t>Percentage Reduction (dimensionless)</t>
+  </si>
+  <si>
+    <t>Aircraft and ships are assumed to be the same as rail, since they all use large engines</t>
+  </si>
+  <si>
+    <t>intended to move heavy craft.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -225,7 +251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,6 +269,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -254,6 +281,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -302,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,18 +654,51 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -878,14 +941,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>38</v>
@@ -924,11 +987,13 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" s="9">
+        <f>B5</f>
+        <v>0.44713930348258707</v>
+      </c>
+      <c r="C4" s="9">
+        <f>C5</f>
+        <v>0.44713930348258707</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,11 +1013,13 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" s="9">
+        <f>B5</f>
+        <v>0.44713930348258707</v>
+      </c>
+      <c r="C6" s="9">
+        <f>C5</f>
+        <v>0.44713930348258707</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,13 +1294,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840B44CD-CA54-4EB4-B6AE-0E84A535D576}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0407CD70-82AA-45F5-B5E1-58DAC3D4BB4B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{698A9F05-CE8D-4A06-B46C-F17ACB5E66E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C36E0700-A268-43F4-B759-539375BB36B8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAAE7403-DFA6-4DB8-9EDE-009CAE8DBC33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B016D9A-F1D7-438C-B652-B3D7BB44552A}"/>
 </file>